--- a/Java/BGTransport/src/main/resources/excel/funicular_station_list.xlsx
+++ b/Java/BGTransport/src/main/resources/excel/funicular_station_list.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{66E7F05E-6563-41D4-AB78-2501F611F0AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{291A773A-C37A-4779-9856-AB822A535616}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{66E7F05E-6563-41D4-AB78-2501F611F0AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D8EFECDC-0EDE-42DB-93E3-C5485056758F}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -55,9 +55,6 @@
     <t>Largo di Porta S. Alessandro</t>
   </si>
   <si>
-    <t>station</t>
-  </si>
-  <si>
     <t>address</t>
   </si>
   <si>
@@ -65,6 +62,9 @@
   </si>
   <si>
     <t>province</t>
+  </si>
+  <si>
+    <t>name</t>
   </si>
 </sst>
 </file>
@@ -190,13 +190,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C8480836-BEC5-47AE-8239-7E57A485AE3C}" name="Tabella1" displayName="Tabella1" ref="A1:D5" totalsRowShown="0" headerRowDxfId="5" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C8480836-BEC5-47AE-8239-7E57A485AE3C}" name="Tabella1" displayName="Tabella1" ref="A1:D5" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
   <autoFilter ref="A1:D5" xr:uid="{C8480836-BEC5-47AE-8239-7E57A485AE3C}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{2B3696EE-3666-48E1-9DF5-50F71AF4F39D}" name="station" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{554944E7-EE90-4500-8DF2-A47D9A7CB08A}" name="address" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{DBE2C48A-D9A4-4794-974D-E4DBC7D7C423}" name="town" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{3D666FF5-63D6-4EBD-85A8-B30407C94A7F}" name="province" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{2B3696EE-3666-48E1-9DF5-50F71AF4F39D}" name="name" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{554944E7-EE90-4500-8DF2-A47D9A7CB08A}" name="address" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{DBE2C48A-D9A4-4794-974D-E4DBC7D7C423}" name="town" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{3D666FF5-63D6-4EBD-85A8-B30407C94A7F}" name="province" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -467,9 +467,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -481,16 +479,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
